--- a/Linux/DeviceDrivers/Document(important)/0.Linux设备模型.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/0.Linux设备模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="709" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="709" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="内核基础" sheetId="5" r:id="rId1"/>
@@ -4061,10 +4061,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arch_initcall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.initcall0.init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4074,10 +4070,6 @@
   </si>
   <si>
     <t>fs_initcall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_initcall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4584,43 +4576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">drivers/base/bus.c
-EXPORT_SYMBOL_GPL:
-int bus_register(struct bus_type *bus);
-void bus_unregister(struct bus_type *bus);
-/* register a subsystem at /sys/devices/system/ */
-int subsys_system_register(struct bus_type *subsys, const struct attribute_group **groups);
-/* register a subsystem at /sys/devices/virtual/ */
-int subsys_virtual_register(struct bus_type *subsys, const struct attribute_group **groups);
-int bus_create_file(struct bus_type *bus, struct bus_attribute *attr);
-void bus_remove_file(struct bus_type *bus, struct bus_attribute *attr);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内部接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>:
-static int subsys_register(struct bus_type *subsys, const struct attribute_group **groups,
-        struct kobject *parent_of_root);</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add_probe_files(bus)</t>
   </si>
   <si>
@@ -8787,6 +8742,154 @@
     struct module_kobject *mkobj;
     struct device_driver *driver;
 };</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">drivers/base/bus.c
+EXPORT_SYMBOL_GPL:
+int bus_register(struct bus_type *bus);
+void bus_unregister(struct bus_type *bus);
+/* register a subsystem at /sys/devices/system/ */
+int subsys_system_register(struct bus_type *subsys, const struct attribute_group **groups);
+/* register a subsystem at /sys/devices/virtual/ */
+int subsys_virtual_register(struct bus_type *subsys, const struct attribute_group **groups);
+int bus_create_file(struct bus_type *bus, struct bus_attribute *attr);
+void bus_remove_file(struct bus_type *bus, struct bus_attribute *attr);
+// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核通知链相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+int bus_register_notifier(struct bus_type *bus, struct notifier_block *nb);
+int bus_unregister_notifier(struct bus_type *bus, struct notifier_block *nb);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:
+static int subsys_register(struct bus_type *subsys, const struct attribute_group **groups,
+        struct kobject *parent_of_root);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">arch_initcall, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据设备树创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> platform_device </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就在这个阶段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_initcall, built-in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ko </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> module_init </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就在这个阶段</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9042,14 +9145,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9372,19 +9475,19 @@
     </row>
     <row r="4" spans="2:4" ht="60">
       <c r="B4" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="36">
       <c r="B5" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>741</v>
+        <v>736</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -9398,8 +9501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ73"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -9409,7 +9512,7 @@
   <sheetData>
     <row r="2" spans="2:78">
       <c r="B2" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -11292,7 +11395,7 @@
     </row>
     <row r="27" spans="2:78">
       <c r="B27" s="42" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -11373,7 +11476,7 @@
     </row>
     <row r="28" spans="2:78">
       <c r="B28" s="28" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -11420,7 +11523,7 @@
       <c r="AS28" s="30"/>
       <c r="AT28" s="30"/>
       <c r="AU28" s="29" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AV28" s="30"/>
       <c r="AW28" s="30"/>
@@ -12167,7 +12270,7 @@
       <c r="AS37" s="34"/>
       <c r="AT37" s="34"/>
       <c r="AU37" s="33" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AV37" s="34"/>
       <c r="AW37" s="34"/>
@@ -12209,7 +12312,7 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -12250,7 +12353,7 @@
       <c r="AS38" s="34"/>
       <c r="AT38" s="34"/>
       <c r="AU38" s="34" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AV38" s="34"/>
       <c r="AW38" s="34"/>
@@ -12293,7 +12396,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" s="34" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -12333,7 +12436,7 @@
       <c r="AS39" s="34"/>
       <c r="AT39" s="34"/>
       <c r="AU39" s="34" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AV39" s="34"/>
       <c r="AW39" s="34"/>
@@ -12377,7 +12480,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="34" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
@@ -12416,7 +12519,7 @@
       <c r="AS40" s="34"/>
       <c r="AT40" s="34"/>
       <c r="AU40" s="34" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AV40" s="34"/>
       <c r="AW40" s="34"/>
@@ -12461,7 +12564,7 @@
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
@@ -12499,7 +12602,7 @@
       <c r="AS41" s="34"/>
       <c r="AT41" s="34"/>
       <c r="AU41" s="34" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AV41" s="34"/>
       <c r="AW41" s="34"/>
@@ -12545,7 +12648,7 @@
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
       <c r="L42" s="38" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -12582,7 +12685,7 @@
       <c r="AS42" s="38"/>
       <c r="AT42" s="38"/>
       <c r="AU42" s="38" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AV42" s="38"/>
       <c r="AW42" s="38"/>
@@ -12776,7 +12879,7 @@
     </row>
     <row r="45" spans="2:78">
       <c r="B45" s="42" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
@@ -12857,7 +12960,7 @@
     </row>
     <row r="46" spans="2:78">
       <c r="B46" s="41" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -12904,7 +13007,7 @@
       <c r="AS46" s="30"/>
       <c r="AT46" s="30"/>
       <c r="AU46" s="30" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV46" s="30"/>
       <c r="AW46" s="30"/>
@@ -12940,7 +13043,7 @@
     </row>
     <row r="47" spans="2:78">
       <c r="B47" s="36" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -12987,7 +13090,7 @@
       <c r="AS47" s="34"/>
       <c r="AT47" s="34"/>
       <c r="AU47" s="34" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV47" s="34"/>
       <c r="AW47" s="34"/>
@@ -13024,7 +13127,7 @@
     <row r="48" spans="2:78">
       <c r="B48" s="36"/>
       <c r="C48" s="34" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
@@ -13070,7 +13173,7 @@
       <c r="AS48" s="34"/>
       <c r="AT48" s="34"/>
       <c r="AU48" s="34" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV48" s="34"/>
       <c r="AW48" s="34"/>
@@ -13106,7 +13209,7 @@
     </row>
     <row r="49" spans="2:78">
       <c r="B49" s="36" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -13153,7 +13256,7 @@
       <c r="AS49" s="34"/>
       <c r="AT49" s="34"/>
       <c r="AU49" s="34" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV49" s="34"/>
       <c r="AW49" s="34"/>
@@ -13190,7 +13293,7 @@
     <row r="50" spans="2:78">
       <c r="B50" s="36"/>
       <c r="C50" s="34" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="34"/>
@@ -13236,7 +13339,7 @@
       <c r="AS50" s="34"/>
       <c r="AT50" s="34"/>
       <c r="AU50" s="34" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AV50" s="34"/>
       <c r="AW50" s="34"/>
@@ -13274,7 +13377,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
@@ -13319,7 +13422,7 @@
       <c r="AS51" s="34"/>
       <c r="AT51" s="34"/>
       <c r="AU51" s="34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AV51" s="34"/>
       <c r="AW51" s="34"/>
@@ -13358,7 +13461,7 @@
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -13402,7 +13505,7 @@
       <c r="AS52" s="34"/>
       <c r="AT52" s="34"/>
       <c r="AU52" s="34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AV52" s="34"/>
       <c r="AW52" s="34"/>
@@ -13442,7 +13545,7 @@
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
@@ -13485,7 +13588,7 @@
       <c r="AS53" s="34"/>
       <c r="AT53" s="34"/>
       <c r="AU53" s="34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AV53" s="34"/>
       <c r="AW53" s="34"/>
@@ -13526,7 +13629,7 @@
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
       <c r="G54" s="34" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
@@ -13568,7 +13671,7 @@
       <c r="AS54" s="34"/>
       <c r="AT54" s="34"/>
       <c r="AU54" s="34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AV54" s="34"/>
       <c r="AW54" s="34"/>
@@ -13610,7 +13713,7 @@
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
@@ -13651,7 +13754,7 @@
       <c r="AS55" s="34"/>
       <c r="AT55" s="34"/>
       <c r="AU55" s="34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AV55" s="34"/>
       <c r="AW55" s="34"/>
@@ -13766,7 +13869,7 @@
     </row>
     <row r="57" spans="2:78">
       <c r="B57" s="36" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -13847,7 +13950,7 @@
     </row>
     <row r="58" spans="2:78">
       <c r="B58" s="36" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
@@ -13928,7 +14031,7 @@
     </row>
     <row r="59" spans="2:78">
       <c r="B59" s="36" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
@@ -14009,7 +14112,7 @@
     </row>
     <row r="60" spans="2:78">
       <c r="B60" s="36" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
@@ -14090,7 +14193,7 @@
     </row>
     <row r="61" spans="2:78">
       <c r="B61" s="36" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
@@ -14171,7 +14274,7 @@
     </row>
     <row r="62" spans="2:78">
       <c r="B62" s="36" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
@@ -14252,7 +14355,7 @@
     </row>
     <row r="63" spans="2:78">
       <c r="B63" s="36" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
@@ -14333,7 +14436,7 @@
     </row>
     <row r="64" spans="2:78">
       <c r="B64" s="36" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
@@ -14414,7 +14517,7 @@
     </row>
     <row r="65" spans="2:78">
       <c r="B65" s="36" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
@@ -14495,7 +14598,7 @@
     </row>
     <row r="66" spans="2:78">
       <c r="B66" s="36" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
@@ -14736,7 +14839,7 @@
     </row>
     <row r="69" spans="2:78">
       <c r="B69" s="36" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
@@ -14817,7 +14920,7 @@
     </row>
     <row r="70" spans="2:78">
       <c r="B70" s="36" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
@@ -14898,7 +15001,7 @@
     </row>
     <row r="71" spans="2:78">
       <c r="B71" s="36" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
@@ -14979,7 +15082,7 @@
     </row>
     <row r="72" spans="2:78">
       <c r="B72" s="36" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
@@ -15179,33 +15282,33 @@
     </row>
     <row r="3" spans="2:4" ht="144">
       <c r="B3" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="132">
       <c r="B4" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="156">
       <c r="B5" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -15219,7 +15322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
@@ -15230,7 +15333,7 @@
   <sheetData>
     <row r="2" spans="2:78">
       <c r="B2" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -15479,7 +15582,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -15511,7 +15614,7 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
@@ -15563,7 +15666,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -15594,7 +15697,7 @@
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
@@ -15647,7 +15750,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -15677,7 +15780,7 @@
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
@@ -15730,7 +15833,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -15760,7 +15863,7 @@
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
@@ -15814,7 +15917,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -15843,7 +15946,7 @@
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
@@ -15897,7 +16000,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -15926,7 +16029,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
@@ -15980,7 +16083,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -16009,7 +16112,7 @@
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
@@ -16063,7 +16166,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -16092,7 +16195,7 @@
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
@@ -16146,7 +16249,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -16175,7 +16278,7 @@
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
@@ -16229,7 +16332,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -16258,7 +16361,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
@@ -16307,7 +16410,7 @@
     </row>
     <row r="17" spans="2:78">
       <c r="B17" s="26" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -16388,7 +16491,7 @@
     </row>
     <row r="18" spans="2:78">
       <c r="B18" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -16422,7 +16525,7 @@
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
       <c r="AH18" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
@@ -16472,7 +16575,7 @@
     <row r="19" spans="2:78">
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -16505,7 +16608,7 @@
       <c r="AF19" s="16"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
@@ -16556,7 +16659,7 @@
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -16588,7 +16691,7 @@
       <c r="AF20" s="16"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
@@ -16640,7 +16743,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -16671,7 +16774,7 @@
       <c r="AF21" s="16"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
@@ -16723,7 +16826,7 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -16754,7 +16857,7 @@
       <c r="AF22" s="16"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
@@ -16806,7 +16909,7 @@
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -16837,7 +16940,7 @@
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
@@ -16889,7 +16992,7 @@
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -16920,7 +17023,7 @@
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI24" s="16"/>
       <c r="AJ24" s="16"/>
@@ -16972,7 +17075,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -17003,7 +17106,7 @@
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
@@ -17055,7 +17158,7 @@
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -17086,7 +17189,7 @@
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
@@ -17138,7 +17241,7 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -17169,7 +17272,7 @@
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AI27" s="16"/>
       <c r="AJ27" s="16"/>
@@ -17219,7 +17322,7 @@
     <row r="28" spans="2:78">
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -17252,7 +17355,7 @@
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
@@ -17301,7 +17404,7 @@
     </row>
     <row r="31" spans="2:78">
       <c r="B31" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -17382,7 +17485,7 @@
     </row>
     <row r="32" spans="2:78">
       <c r="B32" s="14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -17416,7 +17519,7 @@
       <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
       <c r="AH32" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
@@ -17466,7 +17569,7 @@
     <row r="33" spans="2:78">
       <c r="B33" s="15"/>
       <c r="C33" s="16" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -17499,7 +17602,7 @@
       <c r="AF33" s="16"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI33" s="16"/>
       <c r="AJ33" s="16"/>
@@ -17549,7 +17652,7 @@
     <row r="34" spans="2:78">
       <c r="B34" s="15"/>
       <c r="C34" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -17582,7 +17685,7 @@
       <c r="AF34" s="16"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16"/>
@@ -17632,7 +17735,7 @@
     <row r="35" spans="2:78">
       <c r="B35" s="15"/>
       <c r="C35" s="16" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -17665,7 +17768,7 @@
       <c r="AF35" s="16"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI35" s="16"/>
       <c r="AJ35" s="16"/>
@@ -17715,7 +17818,7 @@
     <row r="36" spans="2:78">
       <c r="B36" s="15"/>
       <c r="C36" s="16" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -17748,7 +17851,7 @@
       <c r="AF36" s="16"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
@@ -17876,7 +17979,7 @@
     </row>
     <row r="38" spans="2:78">
       <c r="B38" s="15" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -17910,7 +18013,7 @@
       <c r="AF38" s="16"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="16"/>
@@ -17959,7 +18062,7 @@
     </row>
     <row r="39" spans="2:78">
       <c r="B39" s="15" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -18121,7 +18224,7 @@
     </row>
     <row r="43" spans="2:78">
       <c r="B43" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -18202,7 +18305,7 @@
     </row>
     <row r="44" spans="2:78">
       <c r="B44" s="14" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -18236,7 +18339,7 @@
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
       <c r="AH44" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
@@ -18286,7 +18389,7 @@
     <row r="45" spans="2:78">
       <c r="B45" s="15"/>
       <c r="C45" s="16" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -18319,7 +18422,7 @@
       <c r="AF45" s="16"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI45" s="16"/>
       <c r="AJ45" s="16"/>
@@ -18369,7 +18472,7 @@
     <row r="46" spans="2:78">
       <c r="B46" s="15"/>
       <c r="C46" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -18402,7 +18505,7 @@
       <c r="AF46" s="16"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI46" s="16"/>
       <c r="AJ46" s="16"/>
@@ -18452,7 +18555,7 @@
     <row r="47" spans="2:78">
       <c r="B47" s="15"/>
       <c r="C47" s="16" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -18485,7 +18588,7 @@
       <c r="AF47" s="16"/>
       <c r="AG47" s="16"/>
       <c r="AH47" s="16" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AI47" s="16"/>
       <c r="AJ47" s="16"/>
@@ -18536,7 +18639,7 @@
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -18568,7 +18671,7 @@
       <c r="AF48" s="16"/>
       <c r="AG48" s="16"/>
       <c r="AH48" s="16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AI48" s="16"/>
       <c r="AJ48" s="16"/>
@@ -18620,7 +18723,7 @@
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -18651,7 +18754,7 @@
       <c r="AF49" s="16"/>
       <c r="AG49" s="16"/>
       <c r="AH49" s="16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AI49" s="16"/>
       <c r="AJ49" s="16"/>
@@ -18703,7 +18806,7 @@
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -18734,7 +18837,7 @@
       <c r="AF50" s="16"/>
       <c r="AG50" s="16"/>
       <c r="AH50" s="16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AI50" s="16"/>
       <c r="AJ50" s="16"/>
@@ -18784,7 +18887,7 @@
     <row r="51" spans="2:78">
       <c r="B51" s="18"/>
       <c r="C51" s="19" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -18817,7 +18920,7 @@
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
@@ -18904,31 +19007,31 @@
     </row>
     <row r="3" spans="2:4" ht="288">
       <c r="B3" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" ht="168">
       <c r="B4" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="60">
       <c r="B5" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -18952,7 +19055,7 @@
   <sheetData>
     <row r="2" spans="2:78">
       <c r="B2" s="21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -19821,7 +19924,7 @@
       <c r="AM12" s="16"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="16" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
@@ -19869,7 +19972,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -19953,7 +20056,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -20037,7 +20140,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -20070,7 +20173,7 @@
       <c r="AM15" s="16"/>
       <c r="AN15" s="16"/>
       <c r="AO15" s="16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="16"/>
@@ -20120,7 +20223,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -20153,7 +20256,7 @@
       <c r="AM16" s="16"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="16"/>
@@ -20203,7 +20306,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -20236,7 +20339,7 @@
       <c r="AM17" s="16"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
@@ -20286,7 +20389,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -20319,7 +20422,7 @@
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AP18" s="16"/>
       <c r="AQ18" s="16"/>
@@ -20369,7 +20472,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -20402,7 +20505,7 @@
       <c r="AM19" s="16"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AP19" s="16"/>
       <c r="AQ19" s="16"/>
@@ -20452,7 +20555,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -20485,7 +20588,7 @@
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AP20" s="16"/>
       <c r="AQ20" s="16"/>
@@ -20535,7 +20638,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -20568,7 +20671,7 @@
       <c r="AM21" s="16"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AP21" s="16"/>
       <c r="AQ21" s="16"/>
@@ -20618,7 +20721,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -20651,7 +20754,7 @@
       <c r="AM22" s="16"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AP22" s="16"/>
       <c r="AQ22" s="16"/>
@@ -20701,7 +20804,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -20734,7 +20837,7 @@
       <c r="AM23" s="16"/>
       <c r="AN23" s="16"/>
       <c r="AO23" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AP23" s="16"/>
       <c r="AQ23" s="16"/>
@@ -20784,7 +20887,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -20817,7 +20920,7 @@
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="16" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AP24" s="16"/>
       <c r="AQ24" s="16"/>
@@ -20867,7 +20970,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
@@ -20900,7 +21003,7 @@
       <c r="AM25" s="16"/>
       <c r="AN25" s="16"/>
       <c r="AO25" s="16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AP25" s="16"/>
       <c r="AQ25" s="16"/>
@@ -20950,7 +21053,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -20983,7 +21086,7 @@
       <c r="AM26" s="16"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AP26" s="16"/>
       <c r="AQ26" s="16"/>
@@ -21033,7 +21136,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -21066,7 +21169,7 @@
       <c r="AM27" s="16"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AP27" s="16"/>
       <c r="AQ27" s="16"/>
@@ -21116,7 +21219,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -21149,7 +21252,7 @@
       <c r="AM28" s="16"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
@@ -21200,7 +21303,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
@@ -21232,7 +21335,7 @@
       <c r="AM29" s="16"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AP29" s="16"/>
       <c r="AQ29" s="16"/>
@@ -21283,7 +21386,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -21315,7 +21418,7 @@
       <c r="AM30" s="16"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AP30" s="16"/>
       <c r="AQ30" s="16"/>
@@ -21365,7 +21468,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
@@ -21398,7 +21501,7 @@
       <c r="AM31" s="16"/>
       <c r="AN31" s="16"/>
       <c r="AO31" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AP31" s="16"/>
       <c r="AQ31" s="16"/>
@@ -21447,7 +21550,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
@@ -21481,7 +21584,7 @@
       <c r="AM32" s="16"/>
       <c r="AN32" s="16"/>
       <c r="AO32" s="16" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AP32" s="16"/>
       <c r="AQ32" s="16"/>
@@ -21602,7 +21705,7 @@
     </row>
     <row r="34" spans="2:78">
       <c r="B34" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -21685,7 +21788,7 @@
     </row>
     <row r="35" spans="2:78">
       <c r="B35" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -21766,7 +21869,7 @@
     </row>
     <row r="36" spans="2:78">
       <c r="B36" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -21847,7 +21950,7 @@
     </row>
     <row r="37" spans="2:78">
       <c r="B37" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -21928,7 +22031,7 @@
     </row>
     <row r="38" spans="2:78">
       <c r="B38" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -22009,7 +22112,7 @@
     </row>
     <row r="39" spans="2:78">
       <c r="B39" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -22250,7 +22353,7 @@
     </row>
     <row r="42" spans="2:78">
       <c r="B42" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -22331,7 +22434,7 @@
     </row>
     <row r="43" spans="2:78">
       <c r="B43" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -22412,7 +22515,7 @@
     </row>
     <row r="44" spans="2:78">
       <c r="B44" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -22653,7 +22756,7 @@
     </row>
     <row r="47" spans="2:78">
       <c r="B47" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -22734,7 +22837,7 @@
     </row>
     <row r="48" spans="2:78">
       <c r="B48" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -22815,7 +22918,7 @@
     </row>
     <row r="49" spans="2:78">
       <c r="B49" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -23056,7 +23159,7 @@
     </row>
     <row r="52" spans="2:78">
       <c r="B52" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -23137,7 +23240,7 @@
     </row>
     <row r="53" spans="2:78">
       <c r="B53" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -23218,7 +23321,7 @@
     </row>
     <row r="54" spans="2:78">
       <c r="B54" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -23299,7 +23402,7 @@
     </row>
     <row r="55" spans="2:78">
       <c r="B55" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -23380,7 +23483,7 @@
     </row>
     <row r="56" spans="2:78">
       <c r="B56" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -23461,7 +23564,7 @@
     </row>
     <row r="57" spans="2:78">
       <c r="B57" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -23542,7 +23645,7 @@
     </row>
     <row r="58" spans="2:78">
       <c r="B58" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -23623,7 +23726,7 @@
     </row>
     <row r="59" spans="2:78">
       <c r="B59" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -23704,7 +23807,7 @@
     </row>
     <row r="60" spans="2:78">
       <c r="B60" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -23866,7 +23969,7 @@
     </row>
     <row r="62" spans="2:78">
       <c r="B62" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -24026,7 +24129,7 @@
     </row>
     <row r="64" spans="2:78">
       <c r="B64" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -24107,7 +24210,7 @@
     </row>
     <row r="65" spans="2:78">
       <c r="B65" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -24188,7 +24291,7 @@
     </row>
     <row r="66" spans="2:78">
       <c r="B66" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -24269,7 +24372,7 @@
     </row>
     <row r="67" spans="2:78">
       <c r="B67" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -24350,7 +24453,7 @@
     </row>
     <row r="68" spans="2:78">
       <c r="B68" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -24512,7 +24615,7 @@
     </row>
     <row r="72" spans="2:78">
       <c r="B72" s="21" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
@@ -25381,7 +25484,7 @@
       <c r="AM82" s="16"/>
       <c r="AN82" s="16"/>
       <c r="AO82" s="16" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AP82" s="16"/>
       <c r="AQ82" s="16"/>
@@ -25429,7 +25532,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
@@ -25464,7 +25567,7 @@
       <c r="AM83" s="16"/>
       <c r="AN83" s="16"/>
       <c r="AO83" s="16" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AP83" s="16"/>
       <c r="AQ83" s="16"/>
@@ -25513,7 +25616,7 @@
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
@@ -25547,7 +25650,7 @@
       <c r="AM84" s="16"/>
       <c r="AN84" s="16"/>
       <c r="AO84" s="16" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AP84" s="16"/>
       <c r="AQ84" s="16"/>
@@ -25668,7 +25771,7 @@
     </row>
     <row r="86" spans="2:78">
       <c r="B86" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -25749,7 +25852,7 @@
     </row>
     <row r="87" spans="2:78">
       <c r="B87" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -25830,7 +25933,7 @@
     </row>
     <row r="88" spans="2:78">
       <c r="B88" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -25911,7 +26014,7 @@
     </row>
     <row r="89" spans="2:78">
       <c r="B89" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -25992,7 +26095,7 @@
     </row>
     <row r="90" spans="2:78">
       <c r="B90" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -26073,7 +26176,7 @@
     </row>
     <row r="91" spans="2:78">
       <c r="B91" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -26154,7 +26257,7 @@
     </row>
     <row r="92" spans="2:78">
       <c r="B92" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -26235,7 +26338,7 @@
     </row>
     <row r="93" spans="2:78">
       <c r="B93" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -26316,7 +26419,7 @@
     </row>
     <row r="94" spans="2:78">
       <c r="B94" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -26397,7 +26500,7 @@
     </row>
     <row r="95" spans="2:78">
       <c r="B95" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -26559,7 +26662,7 @@
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -26572,7 +26675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -26605,7 +26708,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -26659,7 +26762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -26693,7 +26796,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>52</v>
@@ -26735,7 +26838,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -26773,7 +26876,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -26791,7 +26894,7 @@
         <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>205</v>
@@ -26876,7 +26979,7 @@
         <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -26907,7 +27010,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>61</v>
@@ -26918,7 +27021,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -26962,8 +27065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ132"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AH4"/>
+    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="AG112" sqref="AG112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -36943,8 +37046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -36976,7 +37079,7 @@
         <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>215</v>
@@ -36984,10 +37087,10 @@
     </row>
     <row r="4" spans="2:4" ht="108">
       <c r="B4" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -37004,10 +37107,10 @@
     </row>
     <row r="6" spans="2:4" ht="96">
       <c r="B6" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -37016,10 +37119,10 @@
         <v>255</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>480</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="96">
@@ -37038,7 +37141,7 @@
         <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -37047,7 +37150,7 @@
         <v>261</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>263</v>
@@ -37058,10 +37161,10 @@
         <v>262</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -37074,8 +37177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ240"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="BZ108" sqref="B49:BZ108"/>
+    <sheetView showGridLines="0" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178:AT178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -37835,7 +37938,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -37918,7 +38021,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -38001,7 +38104,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -38084,7 +38187,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -38250,7 +38353,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -38333,7 +38436,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -38499,7 +38602,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -40774,7 +40877,7 @@
     </row>
     <row r="49" spans="2:78">
       <c r="B49" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
@@ -41691,7 +41794,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -41775,7 +41878,7 @@
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
@@ -41859,7 +41962,7 @@
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
@@ -41892,7 +41995,7 @@
       <c r="AM62" s="16"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AP62" s="16"/>
       <c r="AQ62" s="16"/>
@@ -41942,7 +42045,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
@@ -41975,7 +42078,7 @@
       <c r="AM63" s="16"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AP63" s="16"/>
       <c r="AQ63" s="16"/>
@@ -42025,7 +42128,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
@@ -42058,7 +42161,7 @@
       <c r="AM64" s="16"/>
       <c r="AN64" s="16"/>
       <c r="AO64" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AP64" s="16"/>
       <c r="AQ64" s="16"/>
@@ -42108,7 +42211,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
@@ -42141,7 +42244,7 @@
       <c r="AM65" s="16"/>
       <c r="AN65" s="16"/>
       <c r="AO65" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AP65" s="16"/>
       <c r="AQ65" s="16"/>
@@ -42191,7 +42294,7 @@
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
@@ -42224,7 +42327,7 @@
       <c r="AM66" s="16"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AP66" s="16"/>
       <c r="AQ66" s="16"/>
@@ -42274,7 +42377,7 @@
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
@@ -42307,7 +42410,7 @@
       <c r="AM67" s="16"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AP67" s="16"/>
       <c r="AQ67" s="16"/>
@@ -42357,7 +42460,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
@@ -42390,7 +42493,7 @@
       <c r="AM68" s="16"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AP68" s="16"/>
       <c r="AQ68" s="16"/>
@@ -42440,7 +42543,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
@@ -42473,7 +42576,7 @@
       <c r="AM69" s="16"/>
       <c r="AN69" s="16"/>
       <c r="AO69" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AP69" s="16"/>
       <c r="AQ69" s="16"/>
@@ -42523,7 +42626,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
@@ -42556,7 +42659,7 @@
       <c r="AM70" s="16"/>
       <c r="AN70" s="16"/>
       <c r="AO70" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AP70" s="16"/>
       <c r="AQ70" s="16"/>
@@ -42606,7 +42709,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
@@ -42639,7 +42742,7 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="16"/>
       <c r="AO71" s="16" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AP71" s="16"/>
       <c r="AQ71" s="16"/>
@@ -42689,7 +42792,7 @@
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
@@ -42722,7 +42825,7 @@
       <c r="AM72" s="16"/>
       <c r="AN72" s="16"/>
       <c r="AO72" s="16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AP72" s="16"/>
       <c r="AQ72" s="16"/>
@@ -42772,7 +42875,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
@@ -42805,7 +42908,7 @@
       <c r="AM73" s="16"/>
       <c r="AN73" s="16"/>
       <c r="AO73" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AP73" s="16"/>
       <c r="AQ73" s="16"/>
@@ -42855,7 +42958,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
@@ -42888,7 +42991,7 @@
       <c r="AM74" s="16"/>
       <c r="AN74" s="16"/>
       <c r="AO74" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AP74" s="16"/>
       <c r="AQ74" s="16"/>
@@ -42938,7 +43041,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
@@ -42971,7 +43074,7 @@
       <c r="AM75" s="16"/>
       <c r="AN75" s="16"/>
       <c r="AO75" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AP75" s="16"/>
       <c r="AQ75" s="16"/>
@@ -43022,7 +43125,7 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
@@ -43054,7 +43157,7 @@
       <c r="AM76" s="16"/>
       <c r="AN76" s="16"/>
       <c r="AO76" s="16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AP76" s="16"/>
       <c r="AQ76" s="16"/>
@@ -43105,7 +43208,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
@@ -43137,7 +43240,7 @@
       <c r="AM77" s="16"/>
       <c r="AN77" s="16"/>
       <c r="AO77" s="16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AP77" s="16"/>
       <c r="AQ77" s="16"/>
@@ -43187,7 +43290,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
@@ -43220,7 +43323,7 @@
       <c r="AM78" s="16"/>
       <c r="AN78" s="16"/>
       <c r="AO78" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AP78" s="16"/>
       <c r="AQ78" s="16"/>
@@ -43341,7 +43444,7 @@
     </row>
     <row r="80" spans="2:78">
       <c r="B80" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -43424,7 +43527,7 @@
     </row>
     <row r="81" spans="2:78">
       <c r="B81" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -43505,7 +43608,7 @@
     </row>
     <row r="82" spans="2:78">
       <c r="B82" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -43586,7 +43689,7 @@
     </row>
     <row r="83" spans="2:78">
       <c r="B83" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -43667,7 +43770,7 @@
     </row>
     <row r="84" spans="2:78">
       <c r="B84" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -43748,7 +43851,7 @@
     </row>
     <row r="85" spans="2:78">
       <c r="B85" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -43989,7 +44092,7 @@
     </row>
     <row r="88" spans="2:78">
       <c r="B88" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -44070,7 +44173,7 @@
     </row>
     <row r="89" spans="2:78">
       <c r="B89" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -44151,7 +44254,7 @@
     </row>
     <row r="90" spans="2:78">
       <c r="B90" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -44392,7 +44495,7 @@
     </row>
     <row r="93" spans="2:78">
       <c r="B93" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -44473,7 +44576,7 @@
     </row>
     <row r="94" spans="2:78">
       <c r="B94" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -44554,7 +44657,7 @@
     </row>
     <row r="95" spans="2:78">
       <c r="B95" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -44795,7 +44898,7 @@
     </row>
     <row r="98" spans="2:78">
       <c r="B98" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
@@ -44876,7 +44979,7 @@
     </row>
     <row r="99" spans="2:78">
       <c r="B99" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
@@ -44957,7 +45060,7 @@
     </row>
     <row r="100" spans="2:78">
       <c r="B100" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -45038,7 +45141,7 @@
     </row>
     <row r="101" spans="2:78">
       <c r="B101" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -45119,7 +45222,7 @@
     </row>
     <row r="102" spans="2:78">
       <c r="B102" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -45200,7 +45303,7 @@
     </row>
     <row r="103" spans="2:78">
       <c r="B103" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -45281,7 +45384,7 @@
     </row>
     <row r="104" spans="2:78">
       <c r="B104" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -45362,7 +45465,7 @@
     </row>
     <row r="105" spans="2:78">
       <c r="B105" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
@@ -45443,7 +45546,7 @@
     </row>
     <row r="106" spans="2:78">
       <c r="B106" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
@@ -45605,7 +45708,7 @@
     </row>
     <row r="108" spans="2:78">
       <c r="B108" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -45765,7 +45868,7 @@
     </row>
     <row r="111" spans="2:78">
       <c r="B111" s="21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
@@ -45846,7 +45949,7 @@
     </row>
     <row r="112" spans="2:78">
       <c r="B112" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -45887,7 +45990,7 @@
       <c r="AM112" s="11"/>
       <c r="AN112" s="11"/>
       <c r="AO112" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AP112" s="11"/>
       <c r="AQ112" s="11"/>
@@ -46682,7 +46785,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
       <c r="H122" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I122" s="16"/>
       <c r="J122" s="16"/>
@@ -46717,7 +46820,7 @@
       <c r="AM122" s="16"/>
       <c r="AN122" s="16"/>
       <c r="AO122" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AP122" s="16"/>
       <c r="AQ122" s="16"/>
@@ -46766,7 +46869,7 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
       <c r="I123" s="16" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J123" s="16"/>
       <c r="K123" s="16"/>
@@ -46800,7 +46903,7 @@
       <c r="AM123" s="16"/>
       <c r="AN123" s="16"/>
       <c r="AO123" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AP123" s="16"/>
       <c r="AQ123" s="16"/>
@@ -46850,7 +46953,7 @@
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
       <c r="J124" s="16" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
@@ -46934,7 +47037,7 @@
       <c r="I125" s="16"/>
       <c r="J125" s="16"/>
       <c r="K125" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -46966,7 +47069,7 @@
       <c r="AM125" s="16"/>
       <c r="AN125" s="16"/>
       <c r="AO125" s="16" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AP125" s="16"/>
       <c r="AQ125" s="16"/>
@@ -47017,7 +47120,7 @@
       <c r="I126" s="16"/>
       <c r="J126" s="16"/>
       <c r="K126" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
@@ -47049,7 +47152,7 @@
       <c r="AM126" s="16"/>
       <c r="AN126" s="16"/>
       <c r="AO126" s="16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AP126" s="16"/>
       <c r="AQ126" s="16"/>
@@ -47100,7 +47203,7 @@
       <c r="I127" s="16"/>
       <c r="J127" s="16"/>
       <c r="K127" s="16" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
@@ -47132,7 +47235,7 @@
       <c r="AM127" s="16"/>
       <c r="AN127" s="16"/>
       <c r="AO127" s="16" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AP127" s="16"/>
       <c r="AQ127" s="16"/>
@@ -47183,7 +47286,7 @@
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
       <c r="K128" s="16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L128" s="16"/>
       <c r="M128" s="16"/>
@@ -47215,7 +47318,7 @@
       <c r="AM128" s="16"/>
       <c r="AN128" s="16"/>
       <c r="AO128" s="16" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AP128" s="16"/>
       <c r="AQ128" s="16"/>
@@ -47266,7 +47369,7 @@
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
       <c r="K129" s="16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
@@ -47298,7 +47401,7 @@
       <c r="AM129" s="16"/>
       <c r="AN129" s="16"/>
       <c r="AO129" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AP129" s="16"/>
       <c r="AQ129" s="16"/>
@@ -47349,7 +47452,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="16"/>
       <c r="K130" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
@@ -47381,7 +47484,7 @@
       <c r="AM130" s="16"/>
       <c r="AN130" s="16"/>
       <c r="AO130" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AP130" s="16"/>
       <c r="AQ130" s="16"/>
@@ -47432,7 +47535,7 @@
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
       <c r="K131" s="16" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
@@ -47464,7 +47567,7 @@
       <c r="AM131" s="16"/>
       <c r="AN131" s="16"/>
       <c r="AO131" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AP131" s="16"/>
       <c r="AQ131" s="16"/>
@@ -47515,7 +47618,7 @@
       <c r="I132" s="16"/>
       <c r="J132" s="16"/>
       <c r="K132" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
@@ -47547,7 +47650,7 @@
       <c r="AM132" s="16"/>
       <c r="AN132" s="16"/>
       <c r="AO132" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AP132" s="16"/>
       <c r="AQ132" s="16"/>
@@ -47598,7 +47701,7 @@
       <c r="I133" s="16"/>
       <c r="J133" s="16"/>
       <c r="K133" s="16" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="16"/>
@@ -47630,7 +47733,7 @@
       <c r="AM133" s="16"/>
       <c r="AN133" s="16"/>
       <c r="AO133" s="16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AP133" s="16"/>
       <c r="AQ133" s="16"/>
@@ -47681,7 +47784,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
       <c r="K134" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
@@ -47713,7 +47816,7 @@
       <c r="AM134" s="16"/>
       <c r="AN134" s="16"/>
       <c r="AO134" s="16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AP134" s="16"/>
       <c r="AQ134" s="16"/>
@@ -47764,7 +47867,7 @@
       <c r="I135" s="16"/>
       <c r="J135" s="16"/>
       <c r="K135" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
@@ -47796,7 +47899,7 @@
       <c r="AM135" s="16"/>
       <c r="AN135" s="16"/>
       <c r="AO135" s="16" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AP135" s="16"/>
       <c r="AQ135" s="16"/>
@@ -47917,7 +48020,7 @@
     </row>
     <row r="137" spans="2:78">
       <c r="B137" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
@@ -47957,7 +48060,7 @@
       <c r="AM137" s="16"/>
       <c r="AN137" s="16"/>
       <c r="AO137" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AP137" s="16"/>
       <c r="AQ137" s="16"/>
@@ -47999,7 +48102,7 @@
     </row>
     <row r="138" spans="2:78">
       <c r="B138" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
@@ -48080,7 +48183,7 @@
     </row>
     <row r="139" spans="2:78">
       <c r="B139" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
@@ -48161,7 +48264,7 @@
     </row>
     <row r="140" spans="2:78">
       <c r="B140" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
@@ -48402,7 +48505,7 @@
     </row>
     <row r="143" spans="2:78">
       <c r="B143" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
@@ -48442,7 +48545,7 @@
       <c r="AM143" s="16"/>
       <c r="AN143" s="16"/>
       <c r="AO143" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AP143" s="16"/>
       <c r="AQ143" s="16"/>
@@ -48484,7 +48587,7 @@
     </row>
     <row r="144" spans="2:78">
       <c r="B144" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
@@ -48565,7 +48668,7 @@
     </row>
     <row r="145" spans="2:78">
       <c r="B145" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
@@ -48646,7 +48749,7 @@
     </row>
     <row r="146" spans="2:78">
       <c r="B146" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
@@ -51045,7 +51148,7 @@
     </row>
     <row r="181" spans="2:78">
       <c r="B181" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
@@ -51126,7 +51229,7 @@
     </row>
     <row r="182" spans="2:78">
       <c r="B182" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -51210,7 +51313,7 @@
     <row r="183" spans="2:78">
       <c r="B183" s="15"/>
       <c r="C183" s="16" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -51294,7 +51397,7 @@
       <c r="B184" s="15"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
@@ -51378,7 +51481,7 @@
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
@@ -51416,7 +51519,7 @@
       <c r="AM185" s="16"/>
       <c r="AN185" s="16"/>
       <c r="AO185" s="16" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AP185" s="16"/>
       <c r="AQ185" s="16"/>
@@ -51461,7 +51564,7 @@
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
@@ -51499,7 +51602,7 @@
       <c r="AM186" s="16"/>
       <c r="AN186" s="16"/>
       <c r="AO186" s="16" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AP186" s="16"/>
       <c r="AQ186" s="16"/>
@@ -51544,7 +51647,7 @@
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
@@ -51582,7 +51685,7 @@
       <c r="AM187" s="16"/>
       <c r="AN187" s="16"/>
       <c r="AO187" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AP187" s="16"/>
       <c r="AQ187" s="16"/>
@@ -51627,7 +51730,7 @@
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
@@ -51665,7 +51768,7 @@
       <c r="AM188" s="16"/>
       <c r="AN188" s="16"/>
       <c r="AO188" s="16" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AP188" s="16"/>
       <c r="AQ188" s="16"/>
@@ -51711,7 +51814,7 @@
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G189" s="16"/>
       <c r="H189" s="16"/>
@@ -51748,7 +51851,7 @@
       <c r="AM189" s="16"/>
       <c r="AN189" s="16"/>
       <c r="AO189" s="16" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AP189" s="16"/>
       <c r="AQ189" s="16"/>
@@ -51795,7 +51898,7 @@
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
       <c r="G190" s="16" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H190" s="16"/>
       <c r="I190" s="16"/>
@@ -51831,7 +51934,7 @@
       <c r="AM190" s="16"/>
       <c r="AN190" s="16"/>
       <c r="AO190" s="16" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AP190" s="16"/>
       <c r="AQ190" s="16"/>
@@ -51879,7 +51982,7 @@
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
       <c r="H191" s="16" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I191" s="16"/>
       <c r="J191" s="16"/>
@@ -51914,7 +52017,7 @@
       <c r="AM191" s="16"/>
       <c r="AN191" s="16"/>
       <c r="AO191" s="16" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AP191" s="16"/>
       <c r="AQ191" s="16"/>
@@ -51961,7 +52064,7 @@
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
       <c r="G192" s="16" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H192" s="16"/>
       <c r="I192" s="16"/>
@@ -51997,7 +52100,7 @@
       <c r="AM192" s="16"/>
       <c r="AN192" s="16"/>
       <c r="AO192" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AP192" s="16"/>
       <c r="AQ192" s="16"/>
@@ -52045,7 +52148,7 @@
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
       <c r="H193" s="16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I193" s="16"/>
       <c r="J193" s="16"/>
@@ -52080,7 +52183,7 @@
       <c r="AM193" s="16"/>
       <c r="AN193" s="16"/>
       <c r="AO193" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AP193" s="16"/>
       <c r="AQ193" s="16"/>
@@ -52129,7 +52232,7 @@
       <c r="G194" s="16"/>
       <c r="H194" s="16"/>
       <c r="I194" s="16" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J194" s="16"/>
       <c r="K194" s="16"/>
@@ -52163,7 +52266,7 @@
       <c r="AM194" s="16"/>
       <c r="AN194" s="16"/>
       <c r="AO194" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AP194" s="16"/>
       <c r="AQ194" s="16"/>
@@ -52212,7 +52315,7 @@
       <c r="G195" s="16"/>
       <c r="H195" s="16"/>
       <c r="I195" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J195" s="16"/>
       <c r="K195" s="16"/>
@@ -52246,7 +52349,7 @@
       <c r="AM195" s="16"/>
       <c r="AN195" s="16"/>
       <c r="AO195" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AP195" s="16"/>
       <c r="AQ195" s="16"/>
@@ -52295,7 +52398,7 @@
       <c r="G196" s="16"/>
       <c r="H196" s="16"/>
       <c r="I196" s="16" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J196" s="16"/>
       <c r="K196" s="16"/>
@@ -52329,7 +52432,7 @@
       <c r="AM196" s="16"/>
       <c r="AN196" s="16"/>
       <c r="AO196" s="16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AP196" s="16"/>
       <c r="AQ196" s="16"/>
@@ -52375,7 +52478,7 @@
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
       <c r="F197" s="16" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G197" s="16"/>
       <c r="H197" s="16"/>
@@ -52412,7 +52515,7 @@
       <c r="AM197" s="16"/>
       <c r="AN197" s="16"/>
       <c r="AO197" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AP197" s="16"/>
       <c r="AQ197" s="16"/>
@@ -52458,7 +52561,7 @@
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
       <c r="F198" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G198" s="16"/>
       <c r="H198" s="16"/>
@@ -52495,7 +52598,7 @@
       <c r="AM198" s="16"/>
       <c r="AN198" s="16"/>
       <c r="AO198" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AP198" s="16"/>
       <c r="AQ198" s="16"/>
@@ -52541,7 +52644,7 @@
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
       <c r="F199" s="16" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G199" s="16"/>
       <c r="H199" s="16"/>
@@ -52578,7 +52681,7 @@
       <c r="AM199" s="16"/>
       <c r="AN199" s="16"/>
       <c r="AO199" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP199" s="16"/>
       <c r="AQ199" s="16"/>
@@ -52624,7 +52727,7 @@
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
       <c r="F200" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G200" s="16"/>
       <c r="H200" s="16"/>
@@ -52661,7 +52764,7 @@
       <c r="AM200" s="16"/>
       <c r="AN200" s="16"/>
       <c r="AO200" s="16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AP200" s="16"/>
       <c r="AQ200" s="16"/>
@@ -52708,7 +52811,7 @@
       <c r="E201" s="16"/>
       <c r="F201" s="16"/>
       <c r="G201" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H201" s="16"/>
       <c r="I201" s="16"/>
@@ -52744,7 +52847,7 @@
       <c r="AM201" s="16"/>
       <c r="AN201" s="16"/>
       <c r="AO201" s="16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AP201" s="16"/>
       <c r="AQ201" s="16"/>
@@ -52791,7 +52894,7 @@
       <c r="E202" s="16"/>
       <c r="F202" s="16"/>
       <c r="G202" s="16" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H202" s="16"/>
       <c r="I202" s="16"/>
@@ -52827,7 +52930,7 @@
       <c r="AM202" s="16"/>
       <c r="AN202" s="16"/>
       <c r="AO202" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AP202" s="16"/>
       <c r="AQ202" s="16"/>
@@ -52873,7 +52976,7 @@
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
       <c r="F203" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G203" s="16"/>
       <c r="H203" s="16"/>
@@ -52910,7 +53013,7 @@
       <c r="AM203" s="16"/>
       <c r="AN203" s="16"/>
       <c r="AO203" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AP203" s="16"/>
       <c r="AQ203" s="16"/>
@@ -52956,7 +53059,7 @@
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
       <c r="F204" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G204" s="16"/>
       <c r="H204" s="16"/>
@@ -52993,7 +53096,7 @@
       <c r="AM204" s="16"/>
       <c r="AN204" s="16"/>
       <c r="AO204" s="16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AP204" s="16"/>
       <c r="AQ204" s="16"/>
@@ -53039,7 +53142,7 @@
       <c r="D205" s="16"/>
       <c r="E205" s="16"/>
       <c r="F205" s="16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G205" s="16"/>
       <c r="H205" s="16"/>
@@ -53076,7 +53179,7 @@
       <c r="AM205" s="16"/>
       <c r="AN205" s="16"/>
       <c r="AO205" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AP205" s="16"/>
       <c r="AQ205" s="16"/>
@@ -53122,7 +53225,7 @@
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
       <c r="F206" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G206" s="16"/>
       <c r="H206" s="16"/>
@@ -53159,7 +53262,7 @@
       <c r="AM206" s="16"/>
       <c r="AN206" s="16"/>
       <c r="AO206" s="16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AP206" s="16"/>
       <c r="AQ206" s="16"/>
@@ -53205,7 +53308,7 @@
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
       <c r="F207" s="16" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G207" s="16"/>
       <c r="H207" s="16"/>
@@ -53242,7 +53345,7 @@
       <c r="AM207" s="16"/>
       <c r="AN207" s="16"/>
       <c r="AO207" s="16" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AP207" s="16"/>
       <c r="AQ207" s="16"/>
@@ -53363,7 +53466,7 @@
     </row>
     <row r="209" spans="2:78">
       <c r="B209" s="15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
@@ -53444,7 +53547,7 @@
     </row>
     <row r="210" spans="2:78">
       <c r="B210" s="15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
@@ -53525,7 +53628,7 @@
     </row>
     <row r="211" spans="2:78">
       <c r="B211" s="15" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
@@ -53606,7 +53709,7 @@
     </row>
     <row r="212" spans="2:78">
       <c r="B212" s="15" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
@@ -53847,7 +53950,7 @@
     </row>
     <row r="215" spans="2:78">
       <c r="B215" s="15" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
@@ -53928,7 +54031,7 @@
     </row>
     <row r="216" spans="2:78">
       <c r="B216" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
@@ -54009,7 +54112,7 @@
     </row>
     <row r="217" spans="2:78">
       <c r="B217" s="15" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
@@ -54090,7 +54193,7 @@
     </row>
     <row r="218" spans="2:78">
       <c r="B218" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
@@ -54171,7 +54274,7 @@
     </row>
     <row r="219" spans="2:78">
       <c r="B219" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
@@ -54252,7 +54355,7 @@
     </row>
     <row r="220" spans="2:78">
       <c r="B220" s="15" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
@@ -54333,7 +54436,7 @@
     </row>
     <row r="221" spans="2:78">
       <c r="B221" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -54414,7 +54517,7 @@
     </row>
     <row r="222" spans="2:78">
       <c r="B222" s="15" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
@@ -54495,7 +54598,7 @@
     </row>
     <row r="223" spans="2:78">
       <c r="B223" s="15" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
@@ -54657,7 +54760,7 @@
     </row>
     <row r="225" spans="2:78">
       <c r="B225" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
@@ -54817,7 +54920,7 @@
     </row>
     <row r="227" spans="2:78">
       <c r="B227" s="15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
@@ -54898,7 +55001,7 @@
     </row>
     <row r="228" spans="2:78">
       <c r="B228" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
@@ -54979,7 +55082,7 @@
     </row>
     <row r="229" spans="2:78">
       <c r="B229" s="15" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
@@ -55060,7 +55163,7 @@
     </row>
     <row r="230" spans="2:78">
       <c r="B230" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
@@ -55141,7 +55244,7 @@
     </row>
     <row r="231" spans="2:78">
       <c r="B231" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
@@ -55222,7 +55325,7 @@
     </row>
     <row r="232" spans="2:78">
       <c r="B232" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
@@ -55303,7 +55406,7 @@
     </row>
     <row r="233" spans="2:78">
       <c r="B233" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
@@ -55384,7 +55487,7 @@
     </row>
     <row r="234" spans="2:78">
       <c r="B234" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
@@ -55465,7 +55568,7 @@
     </row>
     <row r="235" spans="2:78">
       <c r="B235" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
@@ -55627,7 +55730,7 @@
     </row>
     <row r="237" spans="2:78">
       <c r="B237" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
@@ -55787,7 +55890,7 @@
     </row>
     <row r="239" spans="2:78">
       <c r="B239" s="27" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
@@ -55868,7 +55971,7 @@
     </row>
     <row r="240" spans="2:78">
       <c r="B240" s="18" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C240" s="19"/>
       <c r="D240" s="19"/>
@@ -55958,8 +56061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AO127"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="BH110" sqref="BH110"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="AA122" sqref="AA122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -56490,206 +56593,206 @@
     </row>
     <row r="113" spans="8:27">
       <c r="P113" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q113" s="11"/>
       <c r="R113" s="12"/>
-      <c r="S113" s="43" t="s">
+      <c r="S113" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="T113" s="43"/>
-      <c r="U113" s="43"/>
-      <c r="V113" s="43"/>
-      <c r="W113" s="43"/>
-      <c r="X113" s="43"/>
-      <c r="Y113" s="43"/>
+      <c r="T113" s="44"/>
+      <c r="U113" s="44"/>
+      <c r="V113" s="44"/>
+      <c r="W113" s="44"/>
+      <c r="X113" s="44"/>
+      <c r="Y113" s="44"/>
       <c r="AA113" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="114" spans="8:27">
       <c r="P114" s="13"/>
-      <c r="S114" s="43" t="s">
+      <c r="S114" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="T114" s="43"/>
-      <c r="U114" s="43"/>
-      <c r="V114" s="43"/>
-      <c r="W114" s="43"/>
-      <c r="X114" s="43"/>
-      <c r="Y114" s="43"/>
+      <c r="T114" s="44"/>
+      <c r="U114" s="44"/>
+      <c r="V114" s="44"/>
+      <c r="W114" s="44"/>
+      <c r="X114" s="44"/>
+      <c r="Y114" s="44"/>
       <c r="AA114" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="115" spans="8:27">
       <c r="P115" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q115" s="11"/>
       <c r="R115" s="12"/>
-      <c r="S115" s="43" t="s">
+      <c r="S115" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="T115" s="43"/>
-      <c r="U115" s="43"/>
-      <c r="V115" s="43"/>
-      <c r="W115" s="43"/>
-      <c r="X115" s="43"/>
-      <c r="Y115" s="43"/>
+      <c r="T115" s="44"/>
+      <c r="U115" s="44"/>
+      <c r="V115" s="44"/>
+      <c r="W115" s="44"/>
+      <c r="X115" s="44"/>
+      <c r="Y115" s="44"/>
       <c r="AA115" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="116" spans="8:27">
       <c r="P116" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q116" s="11"/>
       <c r="R116" s="12"/>
-      <c r="S116" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="T116" s="43"/>
-      <c r="U116" s="43"/>
-      <c r="V116" s="43"/>
-      <c r="W116" s="43"/>
-      <c r="X116" s="43"/>
-      <c r="Y116" s="43"/>
+      <c r="S116" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="T116" s="44"/>
+      <c r="U116" s="44"/>
+      <c r="V116" s="44"/>
+      <c r="W116" s="44"/>
+      <c r="X116" s="44"/>
+      <c r="Y116" s="44"/>
       <c r="AA116" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="117" spans="8:27">
       <c r="P117" s="13"/>
-      <c r="S117" s="43" t="s">
+      <c r="S117" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="T117" s="43"/>
-      <c r="U117" s="43"/>
-      <c r="V117" s="43"/>
-      <c r="W117" s="43"/>
-      <c r="X117" s="43"/>
-      <c r="Y117" s="43"/>
+      <c r="T117" s="44"/>
+      <c r="U117" s="44"/>
+      <c r="V117" s="44"/>
+      <c r="W117" s="44"/>
+      <c r="X117" s="44"/>
+      <c r="Y117" s="44"/>
       <c r="AA117" s="4" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="118" spans="8:27">
       <c r="P118" s="13"/>
-      <c r="S118" s="43" t="s">
+      <c r="S118" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="T118" s="43"/>
-      <c r="U118" s="43"/>
-      <c r="V118" s="43"/>
-      <c r="W118" s="43"/>
-      <c r="X118" s="43"/>
-      <c r="Y118" s="43"/>
+      <c r="T118" s="44"/>
+      <c r="U118" s="44"/>
+      <c r="V118" s="44"/>
+      <c r="W118" s="44"/>
+      <c r="X118" s="44"/>
+      <c r="Y118" s="44"/>
       <c r="AA118" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="119" spans="8:27">
       <c r="P119" s="13"/>
-      <c r="S119" s="43" t="s">
+      <c r="S119" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="T119" s="43"/>
-      <c r="U119" s="43"/>
-      <c r="V119" s="43"/>
-      <c r="W119" s="43"/>
-      <c r="X119" s="43"/>
-      <c r="Y119" s="43"/>
+      <c r="T119" s="44"/>
+      <c r="U119" s="44"/>
+      <c r="V119" s="44"/>
+      <c r="W119" s="44"/>
+      <c r="X119" s="44"/>
+      <c r="Y119" s="44"/>
       <c r="AA119" s="4" t="s">
-        <v>416</v>
+        <v>743</v>
       </c>
     </row>
     <row r="120" spans="8:27">
       <c r="P120" s="13"/>
-      <c r="S120" s="43" t="s">
+      <c r="S120" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="T120" s="43"/>
-      <c r="U120" s="43"/>
-      <c r="V120" s="43"/>
-      <c r="W120" s="43"/>
-      <c r="X120" s="43"/>
-      <c r="Y120" s="43"/>
+      <c r="T120" s="44"/>
+      <c r="U120" s="44"/>
+      <c r="V120" s="44"/>
+      <c r="W120" s="44"/>
+      <c r="X120" s="44"/>
+      <c r="Y120" s="44"/>
       <c r="AA120" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="8:27">
       <c r="P121" s="13"/>
-      <c r="S121" s="43" t="s">
+      <c r="S121" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="T121" s="43"/>
-      <c r="U121" s="43"/>
-      <c r="V121" s="43"/>
-      <c r="W121" s="43"/>
-      <c r="X121" s="43"/>
-      <c r="Y121" s="43"/>
+      <c r="T121" s="44"/>
+      <c r="U121" s="44"/>
+      <c r="V121" s="44"/>
+      <c r="W121" s="44"/>
+      <c r="X121" s="44"/>
+      <c r="Y121" s="44"/>
       <c r="AA121" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="8:27">
       <c r="P122" s="13"/>
-      <c r="S122" s="43" t="s">
+      <c r="S122" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="T122" s="43"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="43"/>
-      <c r="W122" s="43"/>
-      <c r="X122" s="43"/>
-      <c r="Y122" s="43"/>
+      <c r="T122" s="44"/>
+      <c r="U122" s="44"/>
+      <c r="V122" s="44"/>
+      <c r="W122" s="44"/>
+      <c r="X122" s="44"/>
+      <c r="Y122" s="44"/>
       <c r="AA122" s="4" t="s">
-        <v>420</v>
+        <v>744</v>
       </c>
     </row>
     <row r="123" spans="8:27">
       <c r="P123" s="13"/>
-      <c r="S123" s="43" t="s">
+      <c r="S123" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="T123" s="43"/>
-      <c r="U123" s="43"/>
-      <c r="V123" s="43"/>
-      <c r="W123" s="43"/>
-      <c r="X123" s="43"/>
-      <c r="Y123" s="43"/>
+      <c r="T123" s="44"/>
+      <c r="U123" s="44"/>
+      <c r="V123" s="44"/>
+      <c r="W123" s="44"/>
+      <c r="X123" s="44"/>
+      <c r="Y123" s="44"/>
       <c r="AA123" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="8:27">
       <c r="P124" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q124" s="11"/>
       <c r="R124" s="12"/>
-      <c r="S124" s="44" t="s">
+      <c r="S124" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="T124" s="44"/>
-      <c r="U124" s="44"/>
-      <c r="V124" s="44"/>
-      <c r="W124" s="44"/>
-      <c r="X124" s="44"/>
-      <c r="Y124" s="44"/>
+      <c r="T124" s="45"/>
+      <c r="U124" s="45"/>
+      <c r="V124" s="45"/>
+      <c r="W124" s="45"/>
+      <c r="X124" s="45"/>
+      <c r="Y124" s="45"/>
     </row>
     <row r="125" spans="8:27">
       <c r="P125" s="13"/>
-      <c r="S125" s="44"/>
-      <c r="T125" s="44"/>
-      <c r="U125" s="44"/>
-      <c r="V125" s="44"/>
-      <c r="W125" s="44"/>
-      <c r="X125" s="44"/>
-      <c r="Y125" s="44"/>
+      <c r="S125" s="45"/>
+      <c r="T125" s="45"/>
+      <c r="U125" s="45"/>
+      <c r="V125" s="45"/>
+      <c r="W125" s="45"/>
+      <c r="X125" s="45"/>
+      <c r="Y125" s="45"/>
     </row>
     <row r="126" spans="8:27">
       <c r="H126" s="10"/>
@@ -56700,7 +56803,7 @@
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
       <c r="P126" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q126" s="11"/>
       <c r="R126" s="11"/>
@@ -56768,32 +56871,32 @@
     </row>
     <row r="3" spans="2:4" ht="156">
       <c r="B3" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="144">
       <c r="B4" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="96">
       <c r="B5" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D5" s="2"/>
     </row>
